--- a/database/industries/khodro/khetrak/product/yearly.xlsx
+++ b/database/industries/khodro/khetrak/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khetrak\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6771F154-A11E-4EA3-88F4-A9F057B13C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +270,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -281,7 +282,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -328,6 +329,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -363,6 +381,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,7 +549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/khodro/khetrak/product/yearly.xlsx
+++ b/database/industries/khodro/khetrak/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6771F154-A11E-4EA3-88F4-A9F057B13C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD2926C-22B9-4D27-964A-A43E7401D365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>قطعات ریخته چدنی</t>
@@ -554,12 +554,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -569,7 +569,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -593,7 +593,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -603,7 +603,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -615,7 +615,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -627,7 +627,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -637,7 +637,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -659,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -669,7 +669,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -678,22 +678,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>44123</v>
+        <v>43127</v>
       </c>
       <c r="F10" s="9">
-        <v>43127</v>
+        <v>42737</v>
       </c>
       <c r="G10" s="9">
-        <v>42737</v>
+        <v>46502</v>
       </c>
       <c r="H10" s="9">
-        <v>46502</v>
+        <v>51249</v>
       </c>
       <c r="I10" s="9">
-        <v>51249</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60355</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -708,36 +708,36 @@
       <c r="G11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
+      <c r="H11" s="11">
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>44123</v>
+        <v>43127</v>
       </c>
       <c r="F12" s="13">
-        <v>43127</v>
+        <v>42737</v>
       </c>
       <c r="G12" s="13">
-        <v>42737</v>
+        <v>46502</v>
       </c>
       <c r="H12" s="13">
-        <v>46502</v>
+        <v>51249</v>
       </c>
       <c r="I12" s="13">
-        <v>51249</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60355</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -747,7 +747,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -757,7 +757,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -767,7 +767,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -799,7 +799,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
@@ -808,22 +808,22 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>44090</v>
+        <v>43589</v>
       </c>
       <c r="F18" s="9">
-        <v>43589</v>
+        <v>41927</v>
       </c>
       <c r="G18" s="9">
-        <v>41927</v>
+        <v>49328</v>
       </c>
       <c r="H18" s="9">
-        <v>49328</v>
+        <v>52536</v>
       </c>
       <c r="I18" s="9">
-        <v>52536</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63663</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
@@ -831,30 +831,30 @@
         <v>17</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="11">
+        <v>-631</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-437</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-253</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="F19" s="11">
-        <v>-631</v>
-      </c>
-      <c r="G19" s="11">
-        <v>-437</v>
-      </c>
-      <c r="H19" s="11">
-        <v>-253</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>13</v>
+      <c r="E20" s="9">
+        <v>0</v>
       </c>
       <c r="F20" s="9">
         <v>0</v>
@@ -863,35 +863,35 @@
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <v>0</v>
+        <v>-271</v>
       </c>
       <c r="I20" s="9">
-        <v>-271</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-266</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>44090</v>
+        <v>42958</v>
       </c>
       <c r="F21" s="15">
-        <v>42958</v>
+        <v>41490</v>
       </c>
       <c r="G21" s="15">
-        <v>41490</v>
+        <v>49075</v>
       </c>
       <c r="H21" s="15">
-        <v>49075</v>
+        <v>52265</v>
       </c>
       <c r="I21" s="15">
-        <v>52265</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63397</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -901,7 +901,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -911,7 +911,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -921,7 +921,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -953,7 +953,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
@@ -962,22 +962,22 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
-        <v>1899328</v>
+        <v>2732200</v>
       </c>
       <c r="F27" s="9">
-        <v>2732200</v>
+        <v>4072381</v>
       </c>
       <c r="G27" s="9">
-        <v>4072381</v>
+        <v>8504621</v>
       </c>
       <c r="H27" s="9">
-        <v>8504621</v>
+        <v>13752487</v>
       </c>
       <c r="I27" s="9">
-        <v>13752487</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24728679</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
@@ -985,23 +985,23 @@
         <v>19</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="11">
+        <v>-38923</v>
+      </c>
+      <c r="F28" s="11">
+        <v>-41115</v>
+      </c>
+      <c r="G28" s="11">
+        <v>-36085</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="F28" s="11">
-        <v>-38923</v>
-      </c>
-      <c r="G28" s="11">
-        <v>-41115</v>
-      </c>
-      <c r="H28" s="11">
-        <v>-36085</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>12</v>
       </c>
@@ -1009,8 +1009,8 @@
         <v>19</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>13</v>
+      <c r="E29" s="9">
+        <v>0</v>
       </c>
       <c r="F29" s="9">
         <v>0</v>
@@ -1019,35 +1019,35 @@
         <v>0</v>
       </c>
       <c r="H29" s="9">
-        <v>0</v>
+        <v>-61206</v>
       </c>
       <c r="I29" s="9">
-        <v>-61206</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-82738</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <v>1899328</v>
+        <v>2693277</v>
       </c>
       <c r="F30" s="15">
-        <v>2693277</v>
+        <v>4031266</v>
       </c>
       <c r="G30" s="15">
-        <v>4031266</v>
+        <v>8468536</v>
       </c>
       <c r="H30" s="15">
-        <v>8468536</v>
+        <v>13691281</v>
       </c>
       <c r="I30" s="15">
-        <v>13691281</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24645941</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1057,7 +1057,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1067,7 +1067,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1077,7 +1077,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>20</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1109,7 +1109,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>10</v>
       </c>
@@ -1118,22 +1118,22 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>43078430</v>
+        <v>62680952</v>
       </c>
       <c r="F36" s="9">
-        <v>62680952</v>
+        <v>97130274</v>
       </c>
       <c r="G36" s="9">
-        <v>97130274</v>
+        <v>172409605</v>
       </c>
       <c r="H36" s="9">
-        <v>172409605</v>
+        <v>261772632</v>
       </c>
       <c r="I36" s="9">
-        <v>261772632</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>388430941</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>16</v>
       </c>
@@ -1141,23 +1141,23 @@
         <v>22</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>12</v>
       </c>
@@ -1165,8 +1165,8 @@
         <v>22</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>13</v>
+      <c r="E38" s="9">
+        <v>0</v>
       </c>
       <c r="F38" s="9">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1191,7 +1191,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1201,7 +1201,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1211,7 +1211,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>23</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1243,7 +1243,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>10</v>
       </c>
@@ -1251,23 +1251,23 @@
         <v>19</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>13</v>
+      <c r="E44" s="9">
+        <v>-2728265</v>
       </c>
       <c r="F44" s="9">
-        <v>-2728265</v>
+        <v>-3635503</v>
       </c>
       <c r="G44" s="9">
-        <v>-3635503</v>
+        <v>-7330719</v>
       </c>
       <c r="H44" s="9">
-        <v>-7330719</v>
+        <v>-11372190</v>
       </c>
       <c r="I44" s="9">
-        <v>-11372190</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-19861474</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>16</v>
       </c>
@@ -1275,23 +1275,23 @@
         <v>19</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="11">
+        <v>39199</v>
+      </c>
+      <c r="F45" s="11">
+        <v>39963</v>
+      </c>
+      <c r="G45" s="11">
+        <v>33487</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="F45" s="11">
-        <v>39199</v>
-      </c>
-      <c r="G45" s="11">
-        <v>39963</v>
-      </c>
-      <c r="H45" s="11">
-        <v>33487</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>12</v>
       </c>
@@ -1299,8 +1299,8 @@
         <v>19</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>13</v>
+      <c r="E46" s="9">
+        <v>0</v>
       </c>
       <c r="F46" s="9">
         <v>0</v>
@@ -1309,35 +1309,35 @@
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>0</v>
+        <v>52920</v>
       </c>
       <c r="I46" s="9">
-        <v>52920</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>76299</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>-2689066</v>
       </c>
       <c r="F47" s="15">
-        <v>-2689066</v>
+        <v>-3595540</v>
       </c>
       <c r="G47" s="15">
-        <v>-3595540</v>
+        <v>-7297232</v>
       </c>
       <c r="H47" s="15">
-        <v>-7297232</v>
+        <v>-11319270</v>
       </c>
       <c r="I47" s="15">
-        <v>-11319270</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-19785175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1347,7 +1347,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1357,7 +1357,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1367,7 +1367,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>24</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1399,7 +1399,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>10</v>
       </c>
@@ -1407,23 +1407,23 @@
         <v>19</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>13</v>
+      <c r="E53" s="9">
+        <v>3935</v>
       </c>
       <c r="F53" s="9">
-        <v>3935</v>
+        <v>436878</v>
       </c>
       <c r="G53" s="9">
-        <v>436878</v>
+        <v>1173902</v>
       </c>
       <c r="H53" s="9">
-        <v>1173902</v>
+        <v>2380297</v>
       </c>
       <c r="I53" s="9">
-        <v>2380297</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4867205</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>16</v>
       </c>
@@ -1431,23 +1431,23 @@
         <v>19</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="11">
+        <v>276</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-1152</v>
+      </c>
+      <c r="G54" s="11">
+        <v>-2598</v>
+      </c>
+      <c r="H54" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="F54" s="11">
-        <v>276</v>
-      </c>
-      <c r="G54" s="11">
-        <v>-1152</v>
-      </c>
-      <c r="H54" s="11">
-        <v>-2598</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>12</v>
       </c>
@@ -1458,39 +1458,39 @@
       <c r="E55" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>13</v>
+      <c r="F55" s="9">
+        <v>0</v>
       </c>
       <c r="G55" s="9">
         <v>0</v>
       </c>
       <c r="H55" s="9">
-        <v>0</v>
+        <v>-8286</v>
       </c>
       <c r="I55" s="9">
-        <v>-8286</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6439</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
-        <v>0</v>
+        <v>4211</v>
       </c>
       <c r="F56" s="15">
-        <v>4211</v>
+        <v>435726</v>
       </c>
       <c r="G56" s="15">
-        <v>435726</v>
+        <v>1171304</v>
       </c>
       <c r="H56" s="15">
-        <v>1171304</v>
+        <v>2372011</v>
       </c>
       <c r="I56" s="15">
-        <v>2372011</v>
+        <v>4860766</v>
       </c>
     </row>
   </sheetData>
